--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H2">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I2">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J2">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41757066666666</v>
+        <v>82.374849</v>
       </c>
       <c r="N2">
-        <v>208.252712</v>
+        <v>247.124547</v>
       </c>
       <c r="O2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508955</v>
       </c>
       <c r="P2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508954</v>
       </c>
       <c r="Q2">
-        <v>1300.57673633091</v>
+        <v>1092.474632985798</v>
       </c>
       <c r="R2">
-        <v>11705.19062697819</v>
+        <v>9832.271696872182</v>
       </c>
       <c r="S2">
-        <v>0.3115234396421878</v>
+        <v>0.2443226093902741</v>
       </c>
       <c r="T2">
-        <v>0.3115234396421878</v>
+        <v>0.2443226093902742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H3">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I3">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J3">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>96.46939900000001</v>
       </c>
       <c r="O3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="P3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="Q3">
-        <v>602.4692543126372</v>
+        <v>426.466624001077</v>
       </c>
       <c r="R3">
-        <v>5422.223288813735</v>
+        <v>3838.199616009694</v>
       </c>
       <c r="S3">
-        <v>0.1443077437411458</v>
+        <v>0.09537561353624456</v>
       </c>
       <c r="T3">
-        <v>0.1443077437411458</v>
+        <v>0.09537561353624459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H4">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I4">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J4">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.141472333333333</v>
+        <v>17.22395566666667</v>
       </c>
       <c r="N4">
-        <v>9.424417</v>
+        <v>51.671867</v>
       </c>
       <c r="O4">
-        <v>0.03000006735710286</v>
+        <v>0.130652181275918</v>
       </c>
       <c r="P4">
-        <v>0.03000006735710286</v>
+        <v>0.1306521812759179</v>
       </c>
       <c r="Q4">
-        <v>58.85722872930244</v>
+        <v>228.4281534222335</v>
       </c>
       <c r="R4">
-        <v>529.7150585637221</v>
+        <v>2055.853380800102</v>
       </c>
       <c r="S4">
-        <v>0.01409790428305351</v>
+        <v>0.05108600311367367</v>
       </c>
       <c r="T4">
-        <v>0.01409790428305351</v>
+        <v>0.05108600311367368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.55844</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H5">
-        <v>58.67532</v>
+        <v>39.786706</v>
       </c>
       <c r="I5">
-        <v>0.490568851675588</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J5">
-        <v>0.490568851675588</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>69.41757066666666</v>
+        <v>0.07533066666666667</v>
       </c>
       <c r="N5">
-        <v>208.252712</v>
+        <v>0.225992</v>
       </c>
       <c r="O5">
-        <v>0.6629158479828877</v>
+        <v>0.0005714201840414873</v>
       </c>
       <c r="P5">
-        <v>0.6629158479828877</v>
+        <v>0.0005714201840414872</v>
       </c>
       <c r="Q5">
-        <v>1357.69939082976</v>
+        <v>0.9990530291502221</v>
       </c>
       <c r="R5">
-        <v>12219.29451746784</v>
+        <v>8.991477262351999</v>
       </c>
       <c r="S5">
-        <v>0.3252058663025139</v>
+        <v>0.0002234296665855976</v>
       </c>
       <c r="T5">
-        <v>0.3252058663025139</v>
+        <v>0.0002234296665855976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>58.67532</v>
       </c>
       <c r="I6">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J6">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.15646633333333</v>
+        <v>82.374849</v>
       </c>
       <c r="N6">
-        <v>96.46939900000001</v>
+        <v>247.124547</v>
       </c>
       <c r="O6">
-        <v>0.3070840846600094</v>
+        <v>0.6248537741508955</v>
       </c>
       <c r="P6">
-        <v>0.3070840846600094</v>
+        <v>0.6248537741508954</v>
       </c>
       <c r="Q6">
-        <v>628.93031739252</v>
+        <v>1611.12354167556</v>
       </c>
       <c r="R6">
-        <v>5660.37285653268</v>
+        <v>14500.11187508004</v>
       </c>
       <c r="S6">
-        <v>0.1506458867795099</v>
+        <v>0.3603140026020084</v>
       </c>
       <c r="T6">
-        <v>0.1506458867795099</v>
+        <v>0.3603140026020084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>58.67532</v>
       </c>
       <c r="I7">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J7">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.141472333333333</v>
+        <v>32.15646633333333</v>
       </c>
       <c r="N7">
-        <v>9.424417</v>
+        <v>96.46939900000001</v>
       </c>
       <c r="O7">
-        <v>0.03000006735710286</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="P7">
-        <v>0.03000006735710286</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="Q7">
-        <v>61.44229814316</v>
+        <v>628.93031739252</v>
       </c>
       <c r="R7">
-        <v>552.98068328844</v>
+        <v>5660.37285653268</v>
       </c>
       <c r="S7">
-        <v>0.01471709859356424</v>
+        <v>0.1406548871986407</v>
       </c>
       <c r="T7">
-        <v>0.01471709859356424</v>
+        <v>0.1406548871986407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.258689333333333</v>
+        <v>19.55844</v>
       </c>
       <c r="H8">
-        <v>3.776068</v>
+        <v>58.67532</v>
       </c>
       <c r="I8">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J8">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.41757066666666</v>
+        <v>17.22395566666667</v>
       </c>
       <c r="N8">
-        <v>208.252712</v>
+        <v>51.671867</v>
       </c>
       <c r="O8">
-        <v>0.6629158479828877</v>
+        <v>0.130652181275918</v>
       </c>
       <c r="P8">
-        <v>0.6629158479828877</v>
+        <v>0.1306521812759179</v>
       </c>
       <c r="Q8">
-        <v>87.37515574404621</v>
+        <v>336.87370346916</v>
       </c>
       <c r="R8">
-        <v>786.376401696416</v>
+        <v>3031.86333122244</v>
       </c>
       <c r="S8">
-        <v>0.02092872207867296</v>
+        <v>0.07533892301151546</v>
       </c>
       <c r="T8">
-        <v>0.02092872207867296</v>
+        <v>0.07533892301151544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.55844</v>
+      </c>
+      <c r="H9">
+        <v>58.67532</v>
+      </c>
+      <c r="I9">
+        <v>0.5766373150128344</v>
+      </c>
+      <c r="J9">
+        <v>0.5766373150128344</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>1.258689333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.776068</v>
-      </c>
-      <c r="I9">
-        <v>0.03157070711517098</v>
-      </c>
-      <c r="J9">
-        <v>0.03157070711517098</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>32.15646633333333</v>
+        <v>0.07533066666666667</v>
       </c>
       <c r="N9">
-        <v>96.46939900000001</v>
+        <v>0.225992</v>
       </c>
       <c r="O9">
-        <v>0.3070840846600094</v>
+        <v>0.0005714201840414873</v>
       </c>
       <c r="P9">
-        <v>0.3070840846600094</v>
+        <v>0.0005714201840414872</v>
       </c>
       <c r="Q9">
-        <v>40.47500117145911</v>
+        <v>1.47335032416</v>
       </c>
       <c r="R9">
-        <v>364.2750105431321</v>
+        <v>13.26015291744</v>
       </c>
       <c r="S9">
-        <v>0.009694861696531526</v>
+        <v>0.000329502200669823</v>
       </c>
       <c r="T9">
-        <v>0.009694861696531526</v>
+        <v>0.0003295022006698229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.258689333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H10">
-        <v>3.776068</v>
+        <v>2.675758</v>
       </c>
       <c r="I10">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J10">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.141472333333333</v>
+        <v>82.374849</v>
       </c>
       <c r="N10">
-        <v>9.424417</v>
+        <v>247.124547</v>
       </c>
       <c r="O10">
-        <v>0.03000006735710286</v>
+        <v>0.6248537741508955</v>
       </c>
       <c r="P10">
-        <v>0.03000006735710286</v>
+        <v>0.6248537741508954</v>
       </c>
       <c r="Q10">
-        <v>3.954137716928444</v>
+        <v>73.471720403514</v>
       </c>
       <c r="R10">
-        <v>35.587239452356</v>
+        <v>661.245483631626</v>
       </c>
       <c r="S10">
-        <v>0.0009471233399664958</v>
+        <v>0.01643132197616212</v>
       </c>
       <c r="T10">
-        <v>0.0009471233399664958</v>
+        <v>0.01643132197616212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3162143333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H11">
-        <v>0.9486429999999999</v>
+        <v>2.675758</v>
       </c>
       <c r="I11">
-        <v>0.007931353542853873</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J11">
-        <v>0.007931353542853873</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.41757066666666</v>
+        <v>32.15646633333333</v>
       </c>
       <c r="N11">
-        <v>208.252712</v>
+        <v>96.46939900000001</v>
       </c>
       <c r="O11">
-        <v>0.6629158479828877</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="P11">
-        <v>0.6629158479828877</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="Q11">
-        <v>21.95083082997955</v>
+        <v>28.68097401438245</v>
       </c>
       <c r="R11">
-        <v>197.557477469816</v>
+        <v>258.1287661294421</v>
       </c>
       <c r="S11">
-        <v>0.005257819959513056</v>
+        <v>0.006414254573487806</v>
       </c>
       <c r="T11">
-        <v>0.005257819959513056</v>
+        <v>0.006414254573487807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3162143333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H12">
-        <v>0.9486429999999999</v>
+        <v>2.675758</v>
       </c>
       <c r="I12">
-        <v>0.007931353542853873</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J12">
-        <v>0.007931353542853873</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.15646633333333</v>
+        <v>17.22395566666667</v>
       </c>
       <c r="N12">
-        <v>96.46939900000001</v>
+        <v>51.671867</v>
       </c>
       <c r="O12">
-        <v>0.3070840846600094</v>
+        <v>0.130652181275918</v>
       </c>
       <c r="P12">
-        <v>0.3070840846600094</v>
+        <v>0.1306521812759179</v>
       </c>
       <c r="Q12">
-        <v>10.16833556395078</v>
+        <v>15.36237905557622</v>
       </c>
       <c r="R12">
-        <v>91.515020075557</v>
+        <v>138.261411500186</v>
       </c>
       <c r="S12">
-        <v>0.002435592442822204</v>
+        <v>0.0034356647046739</v>
       </c>
       <c r="T12">
-        <v>0.002435592442822204</v>
+        <v>0.0034356647046739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8919193333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.675758</v>
+      </c>
+      <c r="I13">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="J13">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.07533066666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.225992</v>
+      </c>
+      <c r="O13">
+        <v>0.0005714201840414873</v>
+      </c>
+      <c r="P13">
+        <v>0.0005714201840414872</v>
+      </c>
+      <c r="Q13">
+        <v>0.0671888779928889</v>
+      </c>
+      <c r="R13">
+        <v>0.604699901936</v>
+      </c>
+      <c r="S13">
+        <v>1.502621799863868E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.502621799863868E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J14">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>82.374849</v>
+      </c>
+      <c r="N14">
+        <v>247.124547</v>
+      </c>
+      <c r="O14">
+        <v>0.6248537741508955</v>
+      </c>
+      <c r="P14">
+        <v>0.6248537741508954</v>
+      </c>
+      <c r="Q14">
+        <v>16.928168760915</v>
+      </c>
+      <c r="R14">
+        <v>152.353518848235</v>
+      </c>
+      <c r="S14">
+        <v>0.003785840182450667</v>
+      </c>
+      <c r="T14">
+        <v>0.003785840182450667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J15">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>32.15646633333333</v>
+      </c>
+      <c r="N15">
+        <v>96.46939900000001</v>
+      </c>
+      <c r="O15">
+        <v>0.2439226243891451</v>
+      </c>
+      <c r="P15">
+        <v>0.2439226243891451</v>
+      </c>
+      <c r="Q15">
+        <v>6.608207425610557</v>
+      </c>
+      <c r="R15">
+        <v>59.47386683049501</v>
+      </c>
+      <c r="S15">
+        <v>0.001477869080771916</v>
+      </c>
+      <c r="T15">
+        <v>0.001477869080771916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3162143333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.9486429999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="J13">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.141472333333333</v>
-      </c>
-      <c r="N13">
-        <v>9.424417</v>
-      </c>
-      <c r="O13">
-        <v>0.03000006735710286</v>
-      </c>
-      <c r="P13">
-        <v>0.03000006735710286</v>
-      </c>
-      <c r="Q13">
-        <v>0.993378579570111</v>
-      </c>
-      <c r="R13">
-        <v>8.940407216131</v>
-      </c>
-      <c r="S13">
-        <v>0.0002379411405186126</v>
-      </c>
-      <c r="T13">
-        <v>0.0002379411405186126</v>
+      <c r="G16">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J16">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.22395566666667</v>
+      </c>
+      <c r="N16">
+        <v>51.671867</v>
+      </c>
+      <c r="O16">
+        <v>0.130652181275918</v>
+      </c>
+      <c r="P16">
+        <v>0.1306521812759179</v>
+      </c>
+      <c r="Q16">
+        <v>3.539551596092778</v>
+      </c>
+      <c r="R16">
+        <v>31.855964364835</v>
+      </c>
+      <c r="S16">
+        <v>0.0007915904460549059</v>
+      </c>
+      <c r="T16">
+        <v>0.0007915904460549059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J17">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07533066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.225992</v>
+      </c>
+      <c r="O17">
+        <v>0.0005714201840414873</v>
+      </c>
+      <c r="P17">
+        <v>0.0005714201840414872</v>
+      </c>
+      <c r="Q17">
+        <v>0.01548057755111111</v>
+      </c>
+      <c r="R17">
+        <v>0.13932519796</v>
+      </c>
+      <c r="S17">
+        <v>3.462098787427989E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.462098787427989E-06</v>
       </c>
     </row>
   </sheetData>
